--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N2">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O2">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P2">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q2">
-        <v>561.0478413193781</v>
+        <v>588.3665115095347</v>
       </c>
       <c r="R2">
-        <v>561.0478413193781</v>
+        <v>2353.466046038139</v>
       </c>
       <c r="S2">
-        <v>0.007061669847324527</v>
+        <v>0.005633484310823782</v>
       </c>
       <c r="T2">
-        <v>0.007061669847324527</v>
+        <v>0.002720178079822631</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N3">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O3">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P3">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q3">
-        <v>241.8248209631524</v>
+        <v>273.851465220365</v>
       </c>
       <c r="R3">
-        <v>241.8248209631524</v>
+        <v>1643.10879132219</v>
       </c>
       <c r="S3">
-        <v>0.003043745864014544</v>
+        <v>0.002622069581861357</v>
       </c>
       <c r="T3">
-        <v>0.003043745864014544</v>
+        <v>0.001899134480585597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N4">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O4">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P4">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q4">
-        <v>1731.475925923855</v>
+        <v>1887.583387949665</v>
       </c>
       <c r="R4">
-        <v>1731.475925923855</v>
+        <v>11325.50032769799</v>
       </c>
       <c r="S4">
-        <v>0.02179334886791674</v>
+        <v>0.01807320979928633</v>
       </c>
       <c r="T4">
-        <v>0.02179334886791674</v>
+        <v>0.01309021550843689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N5">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O5">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P5">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q5">
-        <v>2115.243434740721</v>
+        <v>2218.031891715181</v>
       </c>
       <c r="R5">
-        <v>2115.243434740721</v>
+        <v>13308.19135029109</v>
       </c>
       <c r="S5">
-        <v>0.02662366679414189</v>
+        <v>0.02123718399748144</v>
       </c>
       <c r="T5">
-        <v>0.02662366679414189</v>
+        <v>0.01538184519555219</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N6">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O6">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P6">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q6">
-        <v>492.0052703811751</v>
+        <v>544.1911835053934</v>
       </c>
       <c r="R6">
-        <v>492.0052703811751</v>
+        <v>3265.147101032361</v>
       </c>
       <c r="S6">
-        <v>0.006192660459052894</v>
+        <v>0.005210514933116786</v>
       </c>
       <c r="T6">
-        <v>0.006192660459052894</v>
+        <v>0.003773915322286619</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N7">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O7">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P7">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q7">
-        <v>284.7521300633035</v>
+        <v>303.1143845644035</v>
       </c>
       <c r="R7">
-        <v>284.7521300633035</v>
+        <v>1212.457538257614</v>
       </c>
       <c r="S7">
-        <v>0.003584053591759199</v>
+        <v>0.002902255815762725</v>
       </c>
       <c r="T7">
-        <v>0.003584053591759199</v>
+        <v>0.001401380072525858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N8">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O8">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P8">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q8">
-        <v>4697.203524790645</v>
+        <v>5060.98168651838</v>
       </c>
       <c r="R8">
-        <v>4697.203524790645</v>
+        <v>30365.89011911028</v>
       </c>
       <c r="S8">
-        <v>0.059121697037024</v>
+        <v>0.04845782411242103</v>
       </c>
       <c r="T8">
-        <v>0.059121697037024</v>
+        <v>0.03509743801715669</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N9">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O9">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P9">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q9">
-        <v>2024.605243536391</v>
+        <v>2355.601862435422</v>
       </c>
       <c r="R9">
-        <v>2024.605243536391</v>
+        <v>21200.4167619188</v>
       </c>
       <c r="S9">
-        <v>0.02548284254582383</v>
+        <v>0.02255438723140548</v>
       </c>
       <c r="T9">
-        <v>0.02548284254582383</v>
+        <v>0.02450382025096837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N10">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O10">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P10">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q10">
-        <v>14496.25900567344</v>
+        <v>16236.52055532525</v>
       </c>
       <c r="R10">
-        <v>14496.25900567344</v>
+        <v>146128.6849979273</v>
       </c>
       <c r="S10">
-        <v>0.1824582283012432</v>
+        <v>0.1554612338083596</v>
       </c>
       <c r="T10">
-        <v>0.1824582283012432</v>
+        <v>0.1688981434143989</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N11">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O11">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P11">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q11">
-        <v>17709.23651375114</v>
+        <v>19078.95599850492</v>
       </c>
       <c r="R11">
-        <v>17709.23651375114</v>
+        <v>171710.6039865443</v>
       </c>
       <c r="S11">
-        <v>0.2228986056059095</v>
+        <v>0.1826769491158114</v>
       </c>
       <c r="T11">
-        <v>0.2228986056059095</v>
+        <v>0.1984661821756884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N12">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O12">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P12">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q12">
-        <v>4119.165461567935</v>
+        <v>4680.996555394413</v>
       </c>
       <c r="R12">
-        <v>4119.165461567935</v>
+        <v>42128.96899854972</v>
       </c>
       <c r="S12">
-        <v>0.0518461785142782</v>
+        <v>0.04481954723455951</v>
       </c>
       <c r="T12">
-        <v>0.0518461785142782</v>
+        <v>0.04869341462915885</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N13">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O13">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P13">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q13">
-        <v>2384.001168028014</v>
+        <v>2607.31418119788</v>
       </c>
       <c r="R13">
-        <v>2384.001168028014</v>
+        <v>15643.88508718728</v>
       </c>
       <c r="S13">
-        <v>0.03000640573655909</v>
+        <v>0.02496447919083951</v>
       </c>
       <c r="T13">
-        <v>0.03000640573655909</v>
+        <v>0.01808148172312378</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N14">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O14">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P14">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q14">
-        <v>1770.90922480917</v>
+        <v>3521.806807574065</v>
       </c>
       <c r="R14">
-        <v>1770.90922480917</v>
+        <v>21130.84084544439</v>
       </c>
       <c r="S14">
-        <v>0.02228967897955948</v>
+        <v>0.03372055174472548</v>
       </c>
       <c r="T14">
-        <v>0.02228967897955948</v>
+        <v>0.02442340316435016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N15">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O15">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P15">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q15">
-        <v>763.3035450673627</v>
+        <v>1639.202666383545</v>
       </c>
       <c r="R15">
-        <v>763.3035450673627</v>
+        <v>14752.8239974519</v>
       </c>
       <c r="S15">
-        <v>0.009607376112315755</v>
+        <v>0.01569501717499188</v>
       </c>
       <c r="T15">
-        <v>0.009607376112315755</v>
+        <v>0.01705157740469888</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N16">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O16">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P16">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q16">
-        <v>5465.28560299381</v>
+        <v>11298.57647487321</v>
       </c>
       <c r="R16">
-        <v>5465.28560299381</v>
+        <v>101687.1882738589</v>
       </c>
       <c r="S16">
-        <v>0.06878921850749706</v>
+        <v>0.1081814686266511</v>
       </c>
       <c r="T16">
-        <v>0.06878921850749706</v>
+        <v>0.1175318679472741</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N17">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O17">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P17">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q17">
-        <v>6676.621555998482</v>
+        <v>13276.55409145821</v>
       </c>
       <c r="R17">
-        <v>6676.621555998482</v>
+        <v>119488.9868231239</v>
       </c>
       <c r="S17">
-        <v>0.08403578741719506</v>
+        <v>0.1271201839549651</v>
       </c>
       <c r="T17">
-        <v>0.08403578741719506</v>
+        <v>0.1381075045818654</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N18">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O18">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P18">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q18">
-        <v>1552.98106115832</v>
+        <v>3257.384941528956</v>
       </c>
       <c r="R18">
-        <v>1552.98106115832</v>
+        <v>29316.46447376061</v>
       </c>
       <c r="S18">
-        <v>0.01954671014731695</v>
+        <v>0.0311887685710332</v>
       </c>
       <c r="T18">
-        <v>0.01954671014731695</v>
+        <v>0.03388449311757363</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N19">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O19">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P19">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q19">
-        <v>898.8006668509885</v>
+        <v>1814.36278603569</v>
       </c>
       <c r="R19">
-        <v>898.8006668509885</v>
+        <v>10886.17671621414</v>
       </c>
       <c r="S19">
-        <v>0.01131282058394684</v>
+        <v>0.0173721380964575</v>
       </c>
       <c r="T19">
-        <v>0.01131282058394684</v>
+        <v>0.01258243743366134</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N20">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O20">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P20">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q20">
-        <v>558.9387413364904</v>
+        <v>703.9504842762029</v>
       </c>
       <c r="R20">
-        <v>558.9387413364904</v>
+        <v>4223.702905657218</v>
       </c>
       <c r="S20">
-        <v>0.007035123505538188</v>
+        <v>0.006740176286703101</v>
       </c>
       <c r="T20">
-        <v>0.007035123505538188</v>
+        <v>0.004881831237375639</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N21">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O21">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P21">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q21">
-        <v>240.9157492437856</v>
+        <v>327.6492930690866</v>
       </c>
       <c r="R21">
-        <v>240.9157492437856</v>
+        <v>2948.84363762178</v>
       </c>
       <c r="S21">
-        <v>0.003032303766073999</v>
+        <v>0.003137172350651863</v>
       </c>
       <c r="T21">
-        <v>0.003032303766073999</v>
+        <v>0.003408326131318746</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N22">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O22">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P22">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q22">
-        <v>1724.96693403976</v>
+        <v>2258.397128432333</v>
       </c>
       <c r="R22">
-        <v>1724.96693403976</v>
+        <v>20325.574155891</v>
       </c>
       <c r="S22">
-        <v>0.02171142296367246</v>
+        <v>0.02162367256081816</v>
       </c>
       <c r="T22">
-        <v>0.02171142296367246</v>
+        <v>0.02349266154561215</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N23">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O23">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P23">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q23">
-        <v>2107.291777923855</v>
+        <v>2653.761887818902</v>
       </c>
       <c r="R23">
-        <v>2107.291777923855</v>
+        <v>23883.85699037012</v>
       </c>
       <c r="S23">
-        <v>0.02652358268179973</v>
+        <v>0.02540920611088794</v>
       </c>
       <c r="T23">
-        <v>0.02652358268179973</v>
+        <v>0.02760538838288831</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N24">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O24">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P24">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q24">
-        <v>490.1557163308442</v>
+        <v>651.0969602681979</v>
       </c>
       <c r="R24">
-        <v>490.1557163308442</v>
+        <v>5859.872642413782</v>
       </c>
       <c r="S24">
-        <v>0.006169380911202742</v>
+        <v>0.006234115026508453</v>
       </c>
       <c r="T24">
-        <v>0.006169380911202742</v>
+        <v>0.006772945434789577</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N25">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O25">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P25">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q25">
-        <v>283.6816853197118</v>
+        <v>362.660881663278</v>
       </c>
       <c r="R25">
-        <v>283.6816853197118</v>
+        <v>2175.965289979668</v>
       </c>
       <c r="S25">
-        <v>0.003570580360401117</v>
+        <v>0.00347240087094333</v>
       </c>
       <c r="T25">
-        <v>0.003570580360401117</v>
+        <v>0.002515019536492463</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N26">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O26">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P26">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q26">
-        <v>318.1166528800697</v>
+        <v>329.7813715546365</v>
       </c>
       <c r="R26">
-        <v>318.1166528800697</v>
+        <v>1978.688229327819</v>
       </c>
       <c r="S26">
-        <v>0.004003998607841005</v>
+        <v>0.003157586549051723</v>
       </c>
       <c r="T26">
-        <v>0.004003998607841005</v>
+        <v>0.002287003187184866</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N27">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O27">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P27">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q27">
-        <v>137.1157626187681</v>
+        <v>153.4946500794433</v>
       </c>
       <c r="R27">
-        <v>137.1157626187681</v>
+        <v>1381.45185071499</v>
       </c>
       <c r="S27">
-        <v>0.001725817613344446</v>
+        <v>0.001469678654550544</v>
       </c>
       <c r="T27">
-        <v>0.001725817613344446</v>
+        <v>0.00159670671644966</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N28">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O28">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P28">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q28">
-        <v>981.7546482346506</v>
+        <v>1057.996718753936</v>
       </c>
       <c r="R28">
-        <v>981.7546482346506</v>
+        <v>9521.970468785426</v>
       </c>
       <c r="S28">
-        <v>0.01235692696117656</v>
+        <v>0.01013009374158909</v>
       </c>
       <c r="T28">
-        <v>0.01235692696117656</v>
+        <v>0.01100566349342981</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N29">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O29">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P29">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q29">
-        <v>1199.352554149145</v>
+        <v>1243.214195731641</v>
       </c>
       <c r="R29">
-        <v>1199.352554149145</v>
+        <v>11188.92776158477</v>
       </c>
       <c r="S29">
-        <v>0.01509573898017268</v>
+        <v>0.01190351172210472</v>
       </c>
       <c r="T29">
-        <v>0.01509573898017268</v>
+        <v>0.0129323624978648</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N30">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O30">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P30">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q30">
-        <v>278.9692042035974</v>
+        <v>305.020954411409</v>
       </c>
       <c r="R30">
-        <v>278.9692042035974</v>
+        <v>2745.18858970268</v>
       </c>
       <c r="S30">
-        <v>0.003511266370839203</v>
+        <v>0.002920510816872558</v>
       </c>
       <c r="T30">
-        <v>0.003511266370839203</v>
+        <v>0.00317293799044145</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N31">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O31">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P31">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q31">
-        <v>161.4557402149292</v>
+        <v>169.896612951549</v>
       </c>
       <c r="R31">
-        <v>161.4557402149292</v>
+        <v>1019.379677709294</v>
       </c>
       <c r="S31">
-        <v>0.002032174528418149</v>
+        <v>0.001626723963383054</v>
       </c>
       <c r="T31">
-        <v>0.002032174528418149</v>
+        <v>0.001178217233679412</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.2008048227633</v>
+        <v>14.4437745</v>
       </c>
       <c r="N32">
-        <v>14.2008048227633</v>
+        <v>28.887549</v>
       </c>
       <c r="O32">
-        <v>0.1033932387215697</v>
+        <v>0.1011784119468053</v>
       </c>
       <c r="P32">
-        <v>0.1033932387215697</v>
+        <v>0.07108478932534294</v>
       </c>
       <c r="Q32">
-        <v>308.3500659426127</v>
+        <v>362.2836484485555</v>
       </c>
       <c r="R32">
-        <v>308.3500659426127</v>
+        <v>1449.134593794222</v>
       </c>
       <c r="S32">
-        <v>0.00388107074428248</v>
+        <v>0.003468788943080188</v>
       </c>
       <c r="T32">
-        <v>0.00388107074428248</v>
+        <v>0.001674935639452958</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>6.12088102098682</v>
+        <v>6.722763333333333</v>
       </c>
       <c r="N33">
-        <v>6.12088102098682</v>
+        <v>20.16829</v>
       </c>
       <c r="O33">
-        <v>0.04456491871325284</v>
+        <v>0.04709285083070759</v>
       </c>
       <c r="P33">
-        <v>0.04456491871325284</v>
+        <v>0.04962894725691061</v>
       </c>
       <c r="Q33">
-        <v>132.9061338426953</v>
+        <v>168.6226289434367</v>
       </c>
       <c r="R33">
-        <v>132.9061338426953</v>
+        <v>1011.73577366062</v>
       </c>
       <c r="S33">
-        <v>0.001672832811680267</v>
+        <v>0.00161452583724646</v>
       </c>
       <c r="T33">
-        <v>0.001672832811680267</v>
+        <v>0.001169382272889358</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>43.8257664828284</v>
+        <v>46.33817233333334</v>
       </c>
       <c r="N34">
-        <v>43.8257664828284</v>
+        <v>139.014517</v>
       </c>
       <c r="O34">
-        <v>0.3190866991461905</v>
+        <v>0.3245981643651428</v>
       </c>
       <c r="P34">
-        <v>0.3190866991461905</v>
+        <v>0.342078784673262</v>
       </c>
       <c r="Q34">
-        <v>951.6135285025407</v>
+        <v>1162.269747105088</v>
       </c>
       <c r="R34">
-        <v>951.6135285025407</v>
+        <v>6973.618482630527</v>
       </c>
       <c r="S34">
-        <v>0.01197755354468448</v>
+        <v>0.01112848582843847</v>
       </c>
       <c r="T34">
-        <v>0.01197755354468448</v>
+        <v>0.008060232764110211</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>53.5393899720668</v>
+        <v>54.450333</v>
       </c>
       <c r="N35">
-        <v>53.5393899720668</v>
+        <v>163.350999</v>
       </c>
       <c r="O35">
-        <v>0.3898096620211104</v>
+        <v>0.3814237215427815</v>
       </c>
       <c r="P35">
-        <v>0.3898096620211104</v>
+        <v>0.4019645747723113</v>
       </c>
       <c r="Q35">
-        <v>1162.530901202938</v>
+        <v>1365.741710968887</v>
       </c>
       <c r="R35">
-        <v>1162.530901202938</v>
+        <v>8194.450265813322</v>
       </c>
       <c r="S35">
-        <v>0.01463228054189156</v>
+        <v>0.01307668664153088</v>
       </c>
       <c r="T35">
-        <v>0.01463228054189156</v>
+        <v>0.009471291938452257</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>12.4532531842978</v>
+        <v>13.359317</v>
       </c>
       <c r="N36">
-        <v>12.4532531842978</v>
+        <v>40.077951</v>
       </c>
       <c r="O36">
-        <v>0.09066966241802785</v>
+        <v>0.09358180430980555</v>
       </c>
       <c r="P36">
-        <v>0.09066966241802785</v>
+        <v>0.09862147541234521</v>
       </c>
       <c r="Q36">
-        <v>270.4044938652336</v>
+        <v>335.082917802463</v>
       </c>
       <c r="R36">
-        <v>270.4044938652336</v>
+        <v>2010.497506814778</v>
       </c>
       <c r="S36">
-        <v>0.003403466015337857</v>
+        <v>0.003208347727715023</v>
       </c>
       <c r="T36">
-        <v>0.003403466015337857</v>
+        <v>0.002323768918095105</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>7.20742354588829</v>
+        <v>7.441137</v>
       </c>
       <c r="N37">
-        <v>7.20742354588829</v>
+        <v>14.882274</v>
       </c>
       <c r="O37">
-        <v>0.05247581897984876</v>
+        <v>0.05212504700475732</v>
       </c>
       <c r="P37">
-        <v>0.05247581897984876</v>
+        <v>0.03662142855982794</v>
       </c>
       <c r="Q37">
-        <v>156.4988430858907</v>
+        <v>186.641120779443</v>
       </c>
       <c r="R37">
-        <v>156.4988430858907</v>
+        <v>746.5644831177721</v>
       </c>
       <c r="S37">
-        <v>0.001969784178764358</v>
+        <v>0.001787049067371197</v>
       </c>
       <c r="T37">
-        <v>0.001969784178764358</v>
+        <v>0.0008628925603450864</v>
       </c>
     </row>
   </sheetData>
